--- a/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\Team130_JUnit\src\test\java\tests\day13_ExcelOtomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288B8D-DB5A-4B1C-B754-178EA9EF7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A051E194-3D6E-49D6-B10C-5C8C74A4600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="625">
   <si>
     <r>
       <rPr>
@@ -6822,6 +6823,9 @@
   </si>
   <si>
     <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
   </si>
 </sst>
 </file>
@@ -6952,12 +6956,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6969,6 +6967,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7276,8 +7280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7291,17 +7295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>614</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -7309,10 +7313,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7327,10 +7331,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7345,17 +7349,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
         <v>615</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>616</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -7363,10 +7367,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -7381,10 +7385,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -7399,10 +7403,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -7417,15 +7421,15 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>624</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -7435,10 +7439,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
@@ -7453,10 +7457,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -7471,10 +7475,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
@@ -7489,10 +7493,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -7507,10 +7511,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
@@ -7525,10 +7529,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
@@ -7543,10 +7547,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
@@ -7561,10 +7565,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
@@ -7579,10 +7583,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
@@ -7597,10 +7601,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>18</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
@@ -7615,10 +7619,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
@@ -7633,10 +7637,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
@@ -7651,10 +7655,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
@@ -7669,10 +7673,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>22</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
@@ -7687,10 +7691,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>71</v>
       </c>
@@ -7705,10 +7709,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>24</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
@@ -7723,10 +7727,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
@@ -7741,10 +7745,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>26</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
@@ -7759,10 +7763,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
@@ -7777,10 +7781,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>28</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
@@ -7795,10 +7799,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
@@ -7813,10 +7817,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>30</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
         <v>93</v>
       </c>
@@ -7831,10 +7835,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
         <v>96</v>
       </c>
@@ -7849,10 +7853,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>32</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
         <v>99</v>
       </c>
@@ -7867,10 +7871,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
         <v>102</v>
       </c>
@@ -7885,10 +7889,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>34</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
         <v>106</v>
       </c>
@@ -7903,10 +7907,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
@@ -7921,10 +7925,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>36</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
@@ -7939,10 +7943,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
         <v>118</v>
       </c>
@@ -7957,10 +7961,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>38</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7975,10 +7979,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
         <v>125</v>
       </c>
@@ -7993,10 +7997,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>40</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
         <v>128</v>
       </c>
@@ -8011,10 +8015,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
         <v>131</v>
       </c>
@@ -8029,10 +8033,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>42</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="3" t="s">
         <v>135</v>
       </c>
@@ -8047,10 +8051,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
         <v>136</v>
       </c>
@@ -8065,10 +8069,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>44</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
         <v>140</v>
       </c>
@@ -8083,10 +8087,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>45</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
         <v>144</v>
       </c>
@@ -8101,10 +8105,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>46</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
         <v>147</v>
       </c>
@@ -8119,10 +8123,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>47</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="3" t="s">
         <v>151</v>
       </c>
@@ -8137,10 +8141,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>48</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
         <v>155</v>
       </c>
@@ -8155,10 +8159,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>49</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>158</v>
       </c>
@@ -8173,10 +8177,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>50</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>159</v>
       </c>
@@ -8191,10 +8195,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>51</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
         <v>163</v>
       </c>
@@ -8209,10 +8213,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>52</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>167</v>
       </c>
@@ -8227,10 +8231,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>53</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="4" t="s">
         <v>170</v>
       </c>
@@ -8245,10 +8249,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>54</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>173</v>
       </c>
@@ -8263,10 +8267,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="9">
         <v>55</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>176</v>
       </c>
@@ -8281,10 +8285,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>56</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
         <v>177</v>
       </c>
@@ -8299,10 +8303,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="9">
         <v>57</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>182</v>
       </c>
@@ -8317,10 +8321,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="9">
         <v>58</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
         <v>185</v>
       </c>
@@ -8335,10 +8339,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="9">
         <v>59</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>189</v>
       </c>
@@ -8353,10 +8357,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="9">
         <v>60</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>193</v>
       </c>
@@ -8371,10 +8375,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="9">
         <v>61</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>194</v>
       </c>
@@ -8389,10 +8393,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>62</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>196</v>
       </c>
@@ -8407,10 +8411,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="9">
         <v>63</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>198</v>
       </c>
@@ -8425,10 +8429,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="9">
         <v>64</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>202</v>
       </c>
@@ -8443,10 +8447,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="9">
         <v>65</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="3" t="s">
         <v>205</v>
       </c>
@@ -8461,10 +8465,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="9">
         <v>66</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="3" t="s">
         <v>209</v>
       </c>
@@ -8479,10 +8483,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="9">
         <v>67</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
         <v>212</v>
       </c>
@@ -8497,10 +8501,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="9">
         <v>68</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="3" t="s">
         <v>214</v>
       </c>
@@ -8515,10 +8519,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="9">
         <v>69</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
         <v>218</v>
       </c>
@@ -8533,10 +8537,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="9">
         <v>70</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
         <v>221</v>
       </c>
@@ -8551,11 +8555,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="9">
         <v>71</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="8" t="s">
         <v>617</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -8569,10 +8573,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="9">
         <v>72</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
         <v>226</v>
       </c>
@@ -8587,10 +8591,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="9">
         <v>73</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
         <v>230</v>
       </c>
@@ -8605,10 +8609,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="9">
         <v>74</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="1" t="s">
         <v>234</v>
       </c>
@@ -8623,10 +8627,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="9">
         <v>75</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="1" t="s">
         <v>238</v>
       </c>
@@ -8641,10 +8645,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="9">
         <v>76</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
         <v>242</v>
       </c>
@@ -8659,10 +8663,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="9">
         <v>77</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="3" t="s">
         <v>245</v>
       </c>
@@ -8677,10 +8681,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="9">
         <v>78</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="3" t="s">
         <v>248</v>
       </c>
@@ -8695,10 +8699,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="9">
         <v>79</v>
       </c>
-      <c r="B79" s="6"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
         <v>251</v>
       </c>
@@ -8713,10 +8717,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="9">
         <v>80</v>
       </c>
-      <c r="B80" s="6"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="3" t="s">
         <v>255</v>
       </c>
@@ -8731,10 +8735,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="9">
         <v>81</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
         <v>258</v>
       </c>
@@ -8749,10 +8753,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="9">
         <v>82</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="3" t="s">
         <v>262</v>
       </c>
@@ -8767,10 +8771,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="9">
         <v>83</v>
       </c>
-      <c r="B83" s="6"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
         <v>265</v>
       </c>
@@ -8785,10 +8789,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="9">
         <v>84</v>
       </c>
-      <c r="B84" s="6"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
         <v>268</v>
       </c>
@@ -8803,10 +8807,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="9">
         <v>85</v>
       </c>
-      <c r="B85" s="6"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
         <v>271</v>
       </c>
@@ -8821,10 +8825,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="9">
         <v>86</v>
       </c>
-      <c r="B86" s="6"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="3" t="s">
         <v>274</v>
       </c>
@@ -8839,10 +8843,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="9">
         <v>87</v>
       </c>
-      <c r="B87" s="6"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
         <v>278</v>
       </c>
@@ -8857,10 +8861,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="9">
         <v>88</v>
       </c>
-      <c r="B88" s="6"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
         <v>282</v>
       </c>
@@ -8875,10 +8879,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="9">
         <v>89</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="3" t="s">
         <v>286</v>
       </c>
@@ -8893,10 +8897,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="9">
         <v>90</v>
       </c>
-      <c r="B90" s="6"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="3" t="s">
         <v>290</v>
       </c>
@@ -8911,10 +8915,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="9">
         <v>91</v>
       </c>
-      <c r="B91" s="6"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="3" t="s">
         <v>291</v>
       </c>
@@ -8929,10 +8933,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="9">
         <v>92</v>
       </c>
-      <c r="B92" s="6"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="3" t="s">
         <v>295</v>
       </c>
@@ -8947,10 +8951,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="9">
         <v>93</v>
       </c>
-      <c r="B93" s="6"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="3" t="s">
         <v>297</v>
       </c>
@@ -8965,10 +8969,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="9">
         <v>94</v>
       </c>
-      <c r="B94" s="6"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="3" t="s">
         <v>302</v>
       </c>
@@ -8983,10 +8987,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="9">
         <v>95</v>
       </c>
-      <c r="B95" s="6"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="3" t="s">
         <v>305</v>
       </c>
@@ -9001,10 +9005,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="9">
         <v>96</v>
       </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="3" t="s">
         <v>308</v>
       </c>
@@ -9019,10 +9023,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="9">
         <v>97</v>
       </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="3" t="s">
         <v>312</v>
       </c>
@@ -9037,10 +9041,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="9">
         <v>98</v>
       </c>
-      <c r="B98" s="6"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="3" t="s">
         <v>316</v>
       </c>
@@ -9055,10 +9059,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="9">
         <v>99</v>
       </c>
-      <c r="B99" s="6"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="3" t="s">
         <v>318</v>
       </c>
@@ -9073,11 +9077,11 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="9">
         <v>100</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="10" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="8" t="s">
         <v>619</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -9091,10 +9095,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="9">
         <v>101</v>
       </c>
-      <c r="B101" s="6"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="3" t="s">
         <v>324</v>
       </c>
@@ -9109,10 +9113,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="9">
         <v>102</v>
       </c>
-      <c r="B102" s="6"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="3" t="s">
         <v>328</v>
       </c>
@@ -9127,28 +9131,28 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="9">
         <v>103</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="8" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="9">
         <v>104</v>
       </c>
-      <c r="B104" s="6"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="3" t="s">
         <v>329</v>
       </c>
@@ -9163,10 +9167,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="9">
         <v>105</v>
       </c>
-      <c r="B105" s="6"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="3" t="s">
         <v>333</v>
       </c>
@@ -9181,10 +9185,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="9">
         <v>106</v>
       </c>
-      <c r="B106" s="6"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="3" t="s">
         <v>336</v>
       </c>
@@ -9199,10 +9203,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="9">
         <v>107</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="1" t="s">
         <v>340</v>
       </c>
@@ -9217,10 +9221,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="9">
         <v>108</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="3" t="s">
         <v>342</v>
       </c>
@@ -9235,10 +9239,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="9">
         <v>109</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="3" t="s">
         <v>346</v>
       </c>
@@ -9253,10 +9257,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="9">
         <v>110</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="3" t="s">
         <v>349</v>
       </c>
@@ -9271,10 +9275,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="9">
         <v>111</v>
       </c>
-      <c r="B111" s="6"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="3" t="s">
         <v>352</v>
       </c>
@@ -9289,10 +9293,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="9">
         <v>112</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="3" t="s">
         <v>355</v>
       </c>
@@ -9307,10 +9311,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="9">
         <v>113</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="3" t="s">
         <v>359</v>
       </c>
@@ -9325,10 +9329,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="9">
         <v>114</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="3" t="s">
         <v>362</v>
       </c>
@@ -9343,10 +9347,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="9">
         <v>115</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="3" t="s">
         <v>366</v>
       </c>
@@ -9361,10 +9365,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="9">
         <v>116</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="3" t="s">
         <v>370</v>
       </c>
@@ -9379,10 +9383,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="9">
         <v>117</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="3" t="s">
         <v>373</v>
       </c>
@@ -9397,10 +9401,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="9">
         <v>118</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="3" t="s">
         <v>374</v>
       </c>
@@ -9415,10 +9419,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="9">
         <v>119</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="10"/>
       <c r="C119" s="3" t="s">
         <v>376</v>
       </c>
@@ -9433,10 +9437,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="9">
         <v>120</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="10"/>
       <c r="C120" s="3" t="s">
         <v>381</v>
       </c>
@@ -9451,10 +9455,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="9">
         <v>121</v>
       </c>
-      <c r="B121" s="6"/>
+      <c r="B121" s="10"/>
       <c r="C121" s="3" t="s">
         <v>382</v>
       </c>
@@ -9469,10 +9473,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="9">
         <v>122</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="3" t="s">
         <v>386</v>
       </c>
@@ -9487,10 +9491,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="9">
         <v>123</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="3" t="s">
         <v>389</v>
       </c>
@@ -9505,11 +9509,11 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="9">
         <v>124</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="10"/>
+      <c r="C124" s="5" t="s">
         <v>623</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -9523,10 +9527,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="9">
         <v>125</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="3" t="s">
         <v>395</v>
       </c>
@@ -9541,10 +9545,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="9">
         <v>126</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="10"/>
       <c r="C126" s="3" t="s">
         <v>399</v>
       </c>
@@ -9559,10 +9563,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="9">
         <v>127</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="10"/>
       <c r="C127" s="3" t="s">
         <v>402</v>
       </c>
@@ -9577,10 +9581,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="9">
         <v>128</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="3" t="s">
         <v>405</v>
       </c>
@@ -9595,10 +9599,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="9">
         <v>129</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="10"/>
       <c r="C129" s="3" t="s">
         <v>408</v>
       </c>
@@ -9613,10 +9617,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="9">
         <v>130</v>
       </c>
-      <c r="B130" s="6"/>
+      <c r="B130" s="10"/>
       <c r="C130" s="3" t="s">
         <v>409</v>
       </c>
@@ -9631,10 +9635,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="9">
         <v>131</v>
       </c>
-      <c r="B131" s="6"/>
+      <c r="B131" s="10"/>
       <c r="C131" s="3" t="s">
         <v>413</v>
       </c>
@@ -9649,10 +9653,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="9">
         <v>132</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="10"/>
       <c r="C132" s="3" t="s">
         <v>414</v>
       </c>
@@ -9667,10 +9671,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="9">
         <v>133</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="10"/>
       <c r="C133" s="3" t="s">
         <v>417</v>
       </c>
@@ -9685,10 +9689,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="9">
         <v>134</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="10"/>
       <c r="C134" s="3" t="s">
         <v>422</v>
       </c>
@@ -9703,10 +9707,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="9">
         <v>135</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="10"/>
       <c r="C135" s="3" t="s">
         <v>425</v>
       </c>
@@ -9721,10 +9725,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="9">
         <v>136</v>
       </c>
-      <c r="B136" s="6"/>
+      <c r="B136" s="10"/>
       <c r="C136" s="3" t="s">
         <v>428</v>
       </c>
@@ -9739,10 +9743,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="9">
         <v>137</v>
       </c>
-      <c r="B137" s="6"/>
+      <c r="B137" s="10"/>
       <c r="C137" s="3" t="s">
         <v>431</v>
       </c>
@@ -9757,10 +9761,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="9">
         <v>138</v>
       </c>
-      <c r="B138" s="6"/>
+      <c r="B138" s="10"/>
       <c r="C138" s="1" t="s">
         <v>434</v>
       </c>
@@ -9775,10 +9779,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="9">
         <v>139</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="10"/>
       <c r="C139" s="3" t="s">
         <v>437</v>
       </c>
@@ -9793,10 +9797,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="9">
         <v>140</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="10"/>
       <c r="C140" s="3" t="s">
         <v>439</v>
       </c>
@@ -9811,10 +9815,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="9">
         <v>141</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="10"/>
       <c r="C141" s="3" t="s">
         <v>444</v>
       </c>
@@ -9829,10 +9833,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="9">
         <v>142</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="10"/>
       <c r="C142" s="3" t="s">
         <v>445</v>
       </c>
@@ -9847,10 +9851,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="9">
         <v>143</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="10"/>
       <c r="C143" s="3" t="s">
         <v>449</v>
       </c>
@@ -9865,10 +9869,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="9">
         <v>144</v>
       </c>
-      <c r="B144" s="6"/>
+      <c r="B144" s="10"/>
       <c r="C144" s="3" t="s">
         <v>451</v>
       </c>
@@ -9883,10 +9887,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="9">
         <v>145</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="10"/>
       <c r="C145" s="3" t="s">
         <v>454</v>
       </c>
@@ -9901,10 +9905,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="9">
         <v>146</v>
       </c>
-      <c r="B146" s="6"/>
+      <c r="B146" s="10"/>
       <c r="C146" s="3" t="s">
         <v>458</v>
       </c>
@@ -9919,10 +9923,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="9">
         <v>147</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="10"/>
       <c r="C147" s="3" t="s">
         <v>462</v>
       </c>
@@ -9937,10 +9941,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="9">
         <v>148</v>
       </c>
-      <c r="B148" s="6"/>
+      <c r="B148" s="10"/>
       <c r="C148" s="3" t="s">
         <v>466</v>
       </c>
@@ -9955,10 +9959,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="9">
         <v>149</v>
       </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="10"/>
       <c r="C149" s="3" t="s">
         <v>470</v>
       </c>
@@ -9973,10 +9977,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="9">
         <v>150</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="10"/>
       <c r="C150" s="3" t="s">
         <v>473</v>
       </c>
@@ -9991,10 +9995,10 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="9">
         <v>151</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="10"/>
       <c r="C151" s="3" t="s">
         <v>477</v>
       </c>
@@ -10009,10 +10013,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+      <c r="A152" s="9">
         <v>152</v>
       </c>
-      <c r="B152" s="6"/>
+      <c r="B152" s="10"/>
       <c r="C152" s="3" t="s">
         <v>478</v>
       </c>
@@ -10027,10 +10031,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+      <c r="A153" s="9">
         <v>153</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="1" t="s">
         <v>482</v>
       </c>
@@ -10045,10 +10049,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="A154" s="9">
         <v>154</v>
       </c>
-      <c r="B154" s="6"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="3" t="s">
         <v>483</v>
       </c>
@@ -10063,10 +10067,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+      <c r="A155" s="9">
         <v>155</v>
       </c>
-      <c r="B155" s="6"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="3" t="s">
         <v>485</v>
       </c>
@@ -10081,10 +10085,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="A156" s="9">
         <v>156</v>
       </c>
-      <c r="B156" s="6"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="3" t="s">
         <v>488</v>
       </c>
@@ -10099,10 +10103,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+      <c r="A157" s="9">
         <v>157</v>
       </c>
-      <c r="B157" s="6"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="3" t="s">
         <v>489</v>
       </c>
@@ -10117,10 +10121,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
+      <c r="A158" s="9">
         <v>158</v>
       </c>
-      <c r="B158" s="6"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="3" t="s">
         <v>493</v>
       </c>
@@ -10135,10 +10139,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="9">
         <v>159</v>
       </c>
-      <c r="B159" s="6"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="3" t="s">
         <v>497</v>
       </c>
@@ -10153,10 +10157,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="9">
         <v>160</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="3" t="s">
         <v>499</v>
       </c>
@@ -10171,10 +10175,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="9">
         <v>161</v>
       </c>
-      <c r="B161" s="6"/>
+      <c r="B161" s="10"/>
       <c r="C161" s="3" t="s">
         <v>502</v>
       </c>
@@ -10189,10 +10193,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="9">
         <v>162</v>
       </c>
-      <c r="B162" s="6"/>
+      <c r="B162" s="10"/>
       <c r="C162" s="3" t="s">
         <v>505</v>
       </c>
@@ -10207,10 +10211,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="9">
         <v>163</v>
       </c>
-      <c r="B163" s="6"/>
+      <c r="B163" s="10"/>
       <c r="C163" s="3" t="s">
         <v>508</v>
       </c>
@@ -10225,10 +10229,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="9">
         <v>164</v>
       </c>
-      <c r="B164" s="6"/>
+      <c r="B164" s="10"/>
       <c r="C164" s="3" t="s">
         <v>512</v>
       </c>
@@ -10243,10 +10247,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="9">
         <v>165</v>
       </c>
-      <c r="B165" s="6"/>
+      <c r="B165" s="10"/>
       <c r="C165" s="3" t="s">
         <v>515</v>
       </c>
@@ -10261,10 +10265,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="9">
         <v>166</v>
       </c>
-      <c r="B166" s="6"/>
+      <c r="B166" s="10"/>
       <c r="C166" s="3" t="s">
         <v>517</v>
       </c>
@@ -10279,10 +10283,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="9">
         <v>167</v>
       </c>
-      <c r="B167" s="6"/>
+      <c r="B167" s="10"/>
       <c r="C167" s="3" t="s">
         <v>520</v>
       </c>
@@ -10297,10 +10301,10 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="9">
         <v>168</v>
       </c>
-      <c r="B168" s="6"/>
+      <c r="B168" s="10"/>
       <c r="C168" s="3" t="s">
         <v>525</v>
       </c>
@@ -10315,10 +10319,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="9">
         <v>169</v>
       </c>
-      <c r="B169" s="6"/>
+      <c r="B169" s="10"/>
       <c r="C169" s="3" t="s">
         <v>528</v>
       </c>
@@ -10333,10 +10337,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="9">
         <v>170</v>
       </c>
-      <c r="B170" s="6"/>
+      <c r="B170" s="10"/>
       <c r="C170" s="3" t="s">
         <v>532</v>
       </c>
@@ -10351,10 +10355,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="9">
         <v>171</v>
       </c>
-      <c r="B171" s="6"/>
+      <c r="B171" s="10"/>
       <c r="C171" s="3" t="s">
         <v>536</v>
       </c>
@@ -10369,10 +10373,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="9">
         <v>172</v>
       </c>
-      <c r="B172" s="6"/>
+      <c r="B172" s="10"/>
       <c r="C172" s="3" t="s">
         <v>539</v>
       </c>
@@ -10387,10 +10391,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="9">
         <v>173</v>
       </c>
-      <c r="B173" s="6"/>
+      <c r="B173" s="10"/>
       <c r="C173" s="3" t="s">
         <v>543</v>
       </c>
@@ -10405,10 +10409,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="9">
         <v>174</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="10"/>
       <c r="C174" s="1" t="s">
         <v>547</v>
       </c>
@@ -10423,10 +10427,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="9">
         <v>175</v>
       </c>
-      <c r="B175" s="6"/>
+      <c r="B175" s="10"/>
       <c r="C175" s="3" t="s">
         <v>551</v>
       </c>
@@ -10441,10 +10445,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="9">
         <v>176</v>
       </c>
-      <c r="B176" s="6"/>
+      <c r="B176" s="10"/>
       <c r="C176" s="3" t="s">
         <v>552</v>
       </c>
@@ -10459,10 +10463,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="9">
         <v>177</v>
       </c>
-      <c r="B177" s="6"/>
+      <c r="B177" s="10"/>
       <c r="C177" s="3" t="s">
         <v>554</v>
       </c>
@@ -10477,10 +10481,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="9">
         <v>178</v>
       </c>
-      <c r="B178" s="6"/>
+      <c r="B178" s="10"/>
       <c r="C178" s="3" t="s">
         <v>558</v>
       </c>
@@ -10495,10 +10499,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="9">
         <v>179</v>
       </c>
-      <c r="B179" s="6"/>
+      <c r="B179" s="10"/>
       <c r="C179" s="3" t="s">
         <v>560</v>
       </c>
@@ -10513,10 +10517,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="9">
         <v>180</v>
       </c>
-      <c r="B180" s="6"/>
+      <c r="B180" s="10"/>
       <c r="C180" s="3" t="s">
         <v>562</v>
       </c>
@@ -10531,10 +10535,10 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="9">
         <v>181</v>
       </c>
-      <c r="B181" s="6"/>
+      <c r="B181" s="10"/>
       <c r="C181" s="3" t="s">
         <v>566</v>
       </c>
@@ -10549,10 +10553,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="9">
         <v>182</v>
       </c>
-      <c r="B182" s="6"/>
+      <c r="B182" s="10"/>
       <c r="C182" s="3" t="s">
         <v>569</v>
       </c>
@@ -10567,10 +10571,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="9">
         <v>183</v>
       </c>
-      <c r="B183" s="6"/>
+      <c r="B183" s="10"/>
       <c r="C183" s="3" t="s">
         <v>571</v>
       </c>
@@ -10585,10 +10589,10 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="9">
         <v>184</v>
       </c>
-      <c r="B184" s="6"/>
+      <c r="B184" s="10"/>
       <c r="C184" s="3" t="s">
         <v>575</v>
       </c>
@@ -10603,10 +10607,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="9">
         <v>185</v>
       </c>
-      <c r="B185" s="6"/>
+      <c r="B185" s="10"/>
       <c r="C185" s="3" t="s">
         <v>578</v>
       </c>
@@ -10621,10 +10625,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="9">
         <v>186</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="10"/>
       <c r="C186" s="3" t="s">
         <v>580</v>
       </c>
@@ -10639,10 +10643,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="9">
         <v>187</v>
       </c>
-      <c r="B187" s="6"/>
+      <c r="B187" s="10"/>
       <c r="C187" s="3" t="s">
         <v>584</v>
       </c>
@@ -10657,10 +10661,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="9">
         <v>188</v>
       </c>
-      <c r="B188" s="6"/>
+      <c r="B188" s="10"/>
       <c r="C188" s="3" t="s">
         <v>585</v>
       </c>
@@ -10675,10 +10679,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="9">
         <v>189</v>
       </c>
-      <c r="B189" s="6"/>
+      <c r="B189" s="10"/>
       <c r="C189" s="3" t="s">
         <v>588</v>
       </c>
@@ -10693,10 +10697,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="9">
         <v>190</v>
       </c>
-      <c r="B190" s="6"/>
+      <c r="B190" s="10"/>
       <c r="C190" s="3" t="s">
         <v>591</v>
       </c>
@@ -10711,10 +10715,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="9">
         <v>191</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="10"/>
       <c r="C191" s="3" t="s">
         <v>593</v>
       </c>
@@ -10729,10 +10733,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="9">
         <v>192</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="10"/>
       <c r="C192" s="3" t="s">
         <v>598</v>
       </c>
@@ -10747,10 +10751,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="9">
         <v>193</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="10"/>
       <c r="C193" s="3" t="s">
         <v>601</v>
       </c>
@@ -10765,10 +10769,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="9">
         <v>194</v>
       </c>
-      <c r="B194" s="6"/>
+      <c r="B194" s="10"/>
       <c r="C194" s="3" t="s">
         <v>604</v>
       </c>
@@ -10783,10 +10787,10 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="9">
         <v>195</v>
       </c>
-      <c r="B195" s="6"/>
+      <c r="B195" s="10"/>
       <c r="C195" s="3" t="s">
         <v>608</v>
       </c>
@@ -10801,10 +10805,10 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="9">
         <v>196</v>
       </c>
-      <c r="B196" s="6"/>
+      <c r="B196" s="10"/>
       <c r="C196" s="3" t="s">
         <v>611</v>
       </c>
@@ -10822,6 +10826,193 @@
     <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="196">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A189:B189"/>
     <mergeCell ref="A190:B190"/>
@@ -10831,193 +11022,6 @@
     <mergeCell ref="A194:B194"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11045,4 +11049,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FE59A1-C0BA-47DE-AFA9-743BDAF6A000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>